--- a/biology/Mycologie/Aureoboletus_moravicus/Aureoboletus_moravicus.xlsx
+++ b/biology/Mycologie/Aureoboletus_moravicus/Aureoboletus_moravicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet couleur de lion
 Aureoboletus moravicus, le Bolet couleur de lion, anciennement Xerocomus leonis ou Xerocomus moravicus, est une espèce de champignon (Fungi) basidiomycète du genre Aureoboletus dans la famille des Boletaceae. Il est caractérisé par son odeur agréable dite de "pâtisserie".
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Aureoboletus moravicus (Vacek) Klofac[1]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus moravicus Vacek[1].
-Synonymes
-Aureoboletus moravicus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Aureoboletus moravicus (Vacek) Klofac. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus moravicus Vacek.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aureoboletus_moravicus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aureoboletus_moravicus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aureoboletus moravicus a pour synonymes :
 Aureoboletus moravicus f. luteus Nonis &amp; Ponzi
 Aureoboletus moravicus f. pallescens (Herink) Klofac
 Boletus leonis D.A.Reid
@@ -529,47 +578,154 @@
 Xerocomus leonis (D.A.Reid) Alessio
 Xerocomus moravicus f. pallescens Herink
 Xerocomus moravicus (Vacek) Herink
-Phylogénie
-Ce taxon a été décrit pour la première fois en 1946 par Vladimír Vacek, qui l'a nommé Boletus moravicus. Son nom actuel, reconnu par Index Fungorum, lui a été donné en 2010 par Wolfgang Klofac, qui l'a transféré dans le genre Aureoboletus.
-Étymologie
-L'épithète spécifique est donné d'après le nom de la Moravie, aujourd'hui la République tchèque.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Aureoboletus_moravicus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Aureoboletus_moravicus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon a été décrit pour la première fois en 1946 par Vladimír Vacek, qui l'a nommé Boletus moravicus. Son nom actuel, reconnu par Index Fungorum, lui a été donné en 2010 par Wolfgang Klofac, qui l'a transféré dans le genre Aureoboletus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aureoboletus_moravicus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aureoboletus_moravicus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique est donné d'après le nom de la Moravie, aujourd'hui la République tchèque.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aureoboletus_moravicus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aureoboletus_moravicus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l’hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Aureoboletus moravicus, le Bolet couleur de lion, sont les suivantes :
-Son chapeau mesure 2 à 8 cm, il est sec, finement feutré, parfois cabossé, de couleur jaune brunâtre à chamois cuivré ou fauve[2].
+Son chapeau mesure 2 à 8 cm, il est sec, finement feutré, parfois cabossé, de couleur jaune brunâtre à chamois cuivré ou fauve.
 L'hyménophore présente des tubes ocre jaune pâle puis chamois, non bleuissants. Les pores sont concolores aux tubes.
-Son stipe mesure 3 à 10 cm x 0,5 x 3 cm, il est lisse ou plus souvent avec des veines plus u moins en relief au sommet, souvent ventre-fusoïde, crème à jaune ochracé pâle[2]. 
-La chair est blanchâtre à jaunâtre, non bleuissante. Sa saveur est douce et son odeur agréable est dite "de pâtisserie" ou rappelant celle de la noix de coco, une de ses caractéristiques d'identification singulières. Le mycélium est jaunâtre pâle[2].
-Caractéristiques microscopiques
-Ses spores mesurent 8,5 à 12 μm x 5 à 6 μm, elles sont hyalines ou presque.
+Son stipe mesure 3 à 10 cm x 0,5 x 3 cm, il est lisse ou plus souvent avec des veines plus u moins en relief au sommet, souvent ventre-fusoïde, crème à jaune ochracé pâle. 
+La chair est blanchâtre à jaunâtre, non bleuissante. Sa saveur est douce et son odeur agréable est dite "de pâtisserie" ou rappelant celle de la noix de coco, une de ses caractéristiques d'identification singulières. Le mycélium est jaunâtre pâle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aureoboletus_moravicus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aureoboletus_moravicus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 8,5 à 12 μm x 5 à 6 μm, elles sont hyalines ou presque.
 </t>
         </is>
       </c>
